--- a/biology/Zoologie/Guibemantis_tornieri/Guibemantis_tornieri.xlsx
+++ b/biology/Zoologie/Guibemantis_tornieri/Guibemantis_tornieri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Guibemantis tornieri est une espèce d'amphibiens de la famille des Mantellidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Guibemantis tornieri est une espèce d'amphibiens de la famille des Mantellidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Madagascar. Elle se rencontre entre 100 et 1 100 m d'altitude de la commune de Voloina jusqu'au parc national d'Andohahela[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Madagascar. Elle se rencontre entre 100 et 1 100 m d'altitude de la commune de Voloina jusqu'au parc national d'Andohahela,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Guibemantis tornieri mesure de 43 à 49 mm pour les mâles et de 48 à 49 mm pour les femelles. Son dos est généralement brun clair uniforme mais présente parfois des taches sombres et une bande transversale brun foncé entre les yeux. Son ventre est blanchâtre avec des taches sombres. Les mâles ont un seul sac vocal de couleur blanc brillant[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Guibemantis tornieri mesure de 43 à 49 mm pour les mâles et de 48 à 49 mm pour les femelles. Son dos est généralement brun clair uniforme mais présente parfois des taches sombres et une bande transversale brun foncé entre les yeux. Son ventre est blanchâtre avec des taches sombres. Les mâles ont un seul sac vocal de couleur blanc brillant.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Gustav Tornier[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Gustav Tornier.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Ahl, 1928 : Neue Frösche der Gattung Rhacophorus aus Madagaskar. Zoologischer Anzeiger, vol. 75, p. 311-318.</t>
         </is>
